--- a/Code/PublicManager/PublicManager/Templetes/teacherList.xlsx
+++ b/Code/PublicManager/PublicManager/Templetes/teacherList.xlsx
@@ -16,104 +16,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>金XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXX单位1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXX单位2</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXX单位3</t>
+  </si>
+  <si>
+    <t>郑XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
   </si>
   <si>
     <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01016811111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXXXXXXX单位1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXX领域1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01016811112</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXX单位2</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXX领域2</t>
-  </si>
-  <si>
-    <t>01016811113</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXX单位3</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXX领域3</t>
-  </si>
-  <si>
-    <t>231111111111111001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>231111111111111002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>231111111111111003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络工程师1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络工程师2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络工程师3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
+  </si>
+  <si>
+    <t>主要研究方向</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>专家来源</t>
+  </si>
+  <si>
+    <t>内部职务</t>
+  </si>
+  <si>
+    <t>XX主任1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX主任2</t>
+  </si>
+  <si>
+    <t>XX主任3</t>
+  </si>
+  <si>
+    <t>高级工程师1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级工程师2</t>
+  </si>
+  <si>
+    <t>高级工程师3</t>
+  </si>
+  <si>
+    <t>XXXX方向1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX方向2</t>
+  </si>
+  <si>
+    <t>XXXX方向3</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXX来源1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXX来源2</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXX来源3</t>
+  </si>
+  <si>
+    <t>XXXX内部职务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX内部职务2</t>
+  </si>
+  <si>
+    <t>XXXX内部职务3</t>
   </si>
 </sst>
 </file>
@@ -460,112 +458,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Code/PublicManager/PublicManager/Templetes/teacherList.xlsx
+++ b/Code/PublicManager/PublicManager/Templetes/teacherList.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>金XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +110,16 @@
   </si>
   <si>
     <t>XXXX内部职务3</t>
+  </si>
+  <si>
+    <t>68xxxxxx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68xxxxxx2</t>
+  </si>
+  <si>
+    <t>68xxxxxx3</t>
   </si>
 </sst>
 </file>
@@ -461,7 +469,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,7 +479,7 @@
     <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -518,7 +526,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
@@ -544,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>24</v>
@@ -570,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
@@ -584,30 +592,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>